--- a/TP1/tablas/7.xlsx
+++ b/TP1/tablas/7.xlsx
@@ -469,17 +469,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>111001011101101110110000101000</t>
+          <t>111011101100101101111011011001</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8061946957302075</v>
+        <v>0.8701016422874415</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001007825491968374</v>
+        <v>9.90339324305849e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3054704559567435</v>
+        <v>0.3868239948902124</v>
       </c>
     </row>
     <row r="3">
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>111001011101110111111110100101</t>
+          <t>111011101100101101111011011101</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8062578432181102</v>
+        <v>0.8701016492372863</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07342460827033991</v>
+        <v>0.07563701921514805</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5846721420903859</v>
+        <v>0.628301577707689</v>
       </c>
     </row>
     <row r="4">
@@ -513,17 +513,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>111001011101110111111110100101</t>
+          <t>111011101100101101111011011101</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8062578432181102</v>
+        <v>0.8701016492372863</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6140691447701324</v>
+        <v>0.1825878186348867</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7678066706470563</v>
+        <v>0.7568158355382901</v>
       </c>
     </row>
     <row r="5">
@@ -535,17 +535,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>111001011101110111111110100101</t>
+          <t>111011101100101101111011011101</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8062578432181102</v>
+        <v>0.8701016492372863</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6140691447701324</v>
+        <v>0.6525310182886788</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7870123442688931</v>
+        <v>0.8240172570352573</v>
       </c>
     </row>
     <row r="6">
@@ -557,17 +557,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>111010001001100110110000101000</t>
+          <t>111011101100101101111011011101</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8255450979812187</v>
+        <v>0.8701016492372863</v>
       </c>
       <c r="E6" t="n">
-        <v>0.597403188723708</v>
+        <v>0.8100297129457867</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7680632890473686</v>
+        <v>0.8512231405743359</v>
       </c>
     </row>
     <row r="7">
@@ -579,17 +579,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>111011011101101110110000101000</t>
+          <t>111011101100101111010101000101</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8632889741162458</v>
+        <v>0.8701116153434306</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5974031815253424</v>
+        <v>0.810039342281386</v>
       </c>
       <c r="F7" t="n">
-        <v>0.76844115420751</v>
+        <v>0.8580806827317223</v>
       </c>
     </row>
     <row r="8">
@@ -601,17 +601,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>111011011101101110110000101000</t>
+          <t>111011101100101111010101000101</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8632889741162458</v>
+        <v>0.8701116153434306</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5973488394204722</v>
+        <v>0.8672573210669913</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7549832934683725</v>
+        <v>0.8698192096414857</v>
       </c>
     </row>
     <row r="9">
@@ -623,17 +623,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>111011011101110111111110101101</t>
+          <t>111011101101101111010101000101</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8633543331964971</v>
+        <v>0.870567142592784</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5973488322224341</v>
+        <v>0.8701016492372863</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7455188800904682</v>
+        <v>0.8701521850152938</v>
       </c>
     </row>
     <row r="10">
@@ -645,17 +645,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>111011011101110111111110101101</t>
+          <t>111011101101101111010101000101</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8633543331964971</v>
+        <v>0.870567142592784</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5973488207055733</v>
+        <v>0.8701007596573647</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7987082271754848</v>
+        <v>0.8702900356003564</v>
       </c>
     </row>
     <row r="11">
@@ -667,17 +667,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>111011011101110111111110101101</t>
+          <t>111011101101101111010101001101</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8633543331964971</v>
+        <v>0.8705671564961914</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5973488207055733</v>
+        <v>0.870100745757682</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7512296277044286</v>
+        <v>0.8703372926193518</v>
       </c>
     </row>
     <row r="12">
@@ -689,17 +689,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>111011011101110111111110101101</t>
+          <t>111011101101101111010101001101</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.8633543331964971</v>
+        <v>0.8705671564961914</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5973488207055733</v>
+        <v>0.4662127472782915</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8310312777521098</v>
+        <v>0.8299929599281141</v>
       </c>
     </row>
     <row r="13">
@@ -711,17 +711,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>111011011101110111111110101101</t>
+          <t>111011101101101111010101001101</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.8633543331964971</v>
+        <v>0.8705671564961914</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5973490049753606</v>
+        <v>0.4662127472782915</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8367407214624164</v>
+        <v>0.7896497155857919</v>
       </c>
     </row>
     <row r="14">
@@ -733,17 +733,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>111011011101110111111110101101</t>
+          <t>111111101101101111010101000101</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.8633543331964971</v>
+        <v>0.9911036272236304</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8632889741162458</v>
+        <v>0.8701016075382174</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8633477891541282</v>
+        <v>0.8825276868256369</v>
       </c>
     </row>
     <row r="15">
@@ -755,17 +755,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>111011011101110111111110101101</t>
+          <t>111111101101101111010101000101</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8633543331964971</v>
+        <v>0.9911036272236304</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8633543106972487</v>
+        <v>0.8701016075382174</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8633543243698689</v>
+        <v>0.8825248394310824</v>
       </c>
     </row>
     <row r="16">
@@ -777,17 +777,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>111011011101110111111110101101</t>
+          <t>111111101101101111010101000101</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.8633543331964971</v>
+        <v>0.9911036272236304</v>
       </c>
       <c r="E16" t="n">
-        <v>0.86335432454294</v>
+        <v>0.8701016075382174</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8633543280043628</v>
+        <v>0.882523436583097</v>
       </c>
     </row>
     <row r="17">
@@ -799,17 +799,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>111011011101110111111110111101</t>
+          <t>111111101101101111010101000101</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.8633543608878803</v>
+        <v>0.9911036272236304</v>
       </c>
       <c r="E17" t="n">
-        <v>0.86335432454294</v>
+        <v>0.870567142592784</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8633543307735012</v>
+        <v>0.8946744617644065</v>
       </c>
     </row>
     <row r="18">
@@ -821,17 +821,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>111011011101110111111110111101</t>
+          <t>111111101101101111010101010101</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.8633543608878803</v>
+        <v>0.9911036568930905</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8062578482356215</v>
+        <v>0.870567142592784</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8576446859119077</v>
+        <v>0.9067280909489839</v>
       </c>
     </row>
     <row r="19">
@@ -843,17 +843,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>111011011101110111111110111101</t>
+          <t>111111101101101111010101010101</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.8633543608878803</v>
+        <v>0.9911036568930905</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8062578482356215</v>
+        <v>0.8705671356410803</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8576446416057009</v>
+        <v>0.9308353871799827</v>
       </c>
     </row>
     <row r="20">
@@ -865,17 +865,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>111011011101110111111110111101</t>
+          <t>111111101101101111010101010101</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.8633543608878803</v>
+        <v>0.9911036568930905</v>
       </c>
       <c r="E20" t="n">
-        <v>0.86335432454294</v>
+        <v>0.870567142592784</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8633543326772838</v>
+        <v>0.9549426959273701</v>
       </c>
     </row>
     <row r="21">
@@ -887,17 +887,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>111011011101110111111110111101</t>
+          <t>111111101101101111010101010111</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.8633543608878803</v>
+        <v>0.9911036606017731</v>
       </c>
       <c r="E21" t="n">
-        <v>0.86335432454294</v>
+        <v>0.870567142592784</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8633543281774341</v>
+        <v>0.9549427041779429</v>
       </c>
     </row>
   </sheetData>
